--- a/cliente.xlsx
+++ b/cliente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desenvolvimento de Sistemas\Sistemas Desenvolvidos\Gestão de Projetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SGI\sgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276428C-2ADE-4889-8020-9862066B2A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92E553-F7BD-4B43-815C-0C035199B5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7644D2D-4FCC-41F0-ABBF-96A211A93B2E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="429">
   <si>
     <t>19.567.510/0001-73</t>
   </si>
@@ -1309,6 +1309,9 @@
   </si>
   <si>
     <t>TEMP FTP</t>
+  </si>
+  <si>
+    <t>Giulliano Sousa Rodrigues (Giulliano Tibá)</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1407,11 +1410,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4D4D4D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF343434"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF343434"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4D4D4D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1435,6 +1475,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1751,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06E408C-49D2-4217-8AA8-C63C753CD565}">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,9 +1813,10 @@
     <col min="2" max="2" width="113" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>384</v>
       </c>
@@ -1775,11 +1826,12 @@
       <c r="C1" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1789,11 +1841,12 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>386</v>
       </c>
@@ -1803,11 +1856,12 @@
       <c r="C3" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>389</v>
       </c>
@@ -1817,11 +1871,12 @@
       <c r="C4" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>392</v>
       </c>
@@ -1831,11 +1886,12 @@
       <c r="C5" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1845,11 +1901,12 @@
       <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1859,11 +1916,12 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1873,11 +1931,12 @@
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1887,11 +1946,12 @@
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1901,11 +1961,12 @@
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1915,11 +1976,12 @@
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1929,11 +1991,14 @@
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1943,11 +2008,12 @@
       <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1957,11 +2023,12 @@
       <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1971,11 +2038,12 @@
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1985,11 +2053,12 @@
       <c r="C16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1999,11 +2068,12 @@
       <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -2013,11 +2083,12 @@
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -2027,11 +2098,12 @@
       <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2041,11 +2113,12 @@
       <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -2055,11 +2128,12 @@
       <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2069,11 +2143,12 @@
       <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -2083,11 +2158,12 @@
       <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2097,11 +2173,12 @@
       <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -2111,11 +2188,12 @@
       <c r="C25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -2125,11 +2203,12 @@
       <c r="C26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -2139,11 +2218,12 @@
       <c r="C27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
@@ -2153,11 +2233,12 @@
       <c r="C28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -2167,11 +2248,12 @@
       <c r="C29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>76</v>
       </c>
@@ -2181,11 +2263,12 @@
       <c r="C30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>79</v>
       </c>
@@ -2195,11 +2278,12 @@
       <c r="C31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>82</v>
       </c>
@@ -2209,11 +2293,12 @@
       <c r="C32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>85</v>
       </c>
@@ -2223,11 +2308,12 @@
       <c r="C33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
@@ -2237,11 +2323,12 @@
       <c r="C34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>91</v>
       </c>
@@ -2251,11 +2338,12 @@
       <c r="C35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>94</v>
       </c>
@@ -2265,11 +2353,12 @@
       <c r="C36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
@@ -2279,11 +2368,12 @@
       <c r="C37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>100</v>
       </c>
@@ -2293,11 +2383,12 @@
       <c r="C38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -2307,11 +2398,12 @@
       <c r="C39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>106</v>
       </c>
@@ -2321,11 +2413,12 @@
       <c r="C40" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>109</v>
       </c>
@@ -2335,11 +2428,12 @@
       <c r="C41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>112</v>
       </c>
@@ -2349,11 +2443,12 @@
       <c r="C42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>115</v>
       </c>
@@ -2363,11 +2458,12 @@
       <c r="C43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>118</v>
       </c>
@@ -2377,11 +2473,12 @@
       <c r="C44" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>121</v>
       </c>
@@ -2391,11 +2488,12 @@
       <c r="C45" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>124</v>
       </c>
@@ -2405,11 +2503,12 @@
       <c r="C46" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
@@ -2419,11 +2518,12 @@
       <c r="C47" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>130</v>
       </c>
@@ -2433,11 +2533,12 @@
       <c r="C48" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>133</v>
       </c>
@@ -2447,11 +2548,12 @@
       <c r="C49" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>136</v>
       </c>
@@ -2461,11 +2563,12 @@
       <c r="C50" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>139</v>
       </c>
@@ -2475,11 +2578,12 @@
       <c r="C51" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>142</v>
       </c>
@@ -2489,11 +2593,12 @@
       <c r="C52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>144</v>
       </c>
@@ -2503,11 +2608,12 @@
       <c r="C53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>147</v>
       </c>
@@ -2517,11 +2623,12 @@
       <c r="C54" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>150</v>
       </c>
@@ -2531,11 +2638,12 @@
       <c r="C55" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>153</v>
       </c>
@@ -2545,11 +2653,12 @@
       <c r="C56" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>156</v>
       </c>
@@ -2559,11 +2668,12 @@
       <c r="C57" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>159</v>
       </c>
@@ -2573,11 +2683,12 @@
       <c r="C58" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>162</v>
       </c>
@@ -2587,11 +2698,12 @@
       <c r="C59" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>165</v>
       </c>
@@ -2601,11 +2713,12 @@
       <c r="C60" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>394</v>
       </c>
@@ -2615,11 +2728,12 @@
       <c r="C61" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>396</v>
       </c>
@@ -2629,11 +2743,12 @@
       <c r="C62" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>167</v>
       </c>
@@ -2643,11 +2758,12 @@
       <c r="C63" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>398</v>
       </c>
@@ -2657,11 +2773,12 @@
       <c r="C64" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>170</v>
       </c>
@@ -2671,11 +2788,12 @@
       <c r="C65" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>172</v>
       </c>
@@ -2685,11 +2803,12 @@
       <c r="C66" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D66" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>400</v>
       </c>
@@ -2699,11 +2818,12 @@
       <c r="C67" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>402</v>
       </c>
@@ -2713,11 +2833,12 @@
       <c r="C68" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D68" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>402</v>
       </c>
@@ -2727,11 +2848,12 @@
       <c r="C69" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>147</v>
       </c>
@@ -2741,11 +2863,12 @@
       <c r="C70" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D70" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>174</v>
       </c>
@@ -2755,11 +2878,12 @@
       <c r="C71" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D71" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>177</v>
       </c>
@@ -2769,11 +2893,12 @@
       <c r="C72" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D72" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>179</v>
       </c>
@@ -2783,11 +2908,12 @@
       <c r="C73" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>181</v>
       </c>
@@ -2797,11 +2923,12 @@
       <c r="C74" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D74" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>183</v>
       </c>
@@ -2811,11 +2938,12 @@
       <c r="C75" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>185</v>
       </c>
@@ -2825,11 +2953,12 @@
       <c r="C76" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D76" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>187</v>
       </c>
@@ -2839,11 +2968,12 @@
       <c r="C77" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>189</v>
       </c>
@@ -2853,11 +2983,12 @@
       <c r="C78" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D78" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>191</v>
       </c>
@@ -2867,11 +2998,12 @@
       <c r="C79" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>193</v>
       </c>
@@ -2881,11 +3013,12 @@
       <c r="C80" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D80" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>195</v>
       </c>
@@ -2895,11 +3028,12 @@
       <c r="C81" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>197</v>
       </c>
@@ -2909,11 +3043,12 @@
       <c r="C82" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>199</v>
       </c>
@@ -2923,11 +3058,12 @@
       <c r="C83" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>201</v>
       </c>
@@ -2937,11 +3073,12 @@
       <c r="C84" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>203</v>
       </c>
@@ -2951,11 +3088,12 @@
       <c r="C85" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>206</v>
       </c>
@@ -2965,11 +3103,12 @@
       <c r="C86" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D86" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>208</v>
       </c>
@@ -2979,11 +3118,12 @@
       <c r="C87" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D87" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>210</v>
       </c>
@@ -2993,11 +3133,12 @@
       <c r="C88" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D88" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>212</v>
       </c>
@@ -3007,11 +3148,12 @@
       <c r="C89" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D89" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>214</v>
       </c>
@@ -3021,11 +3163,12 @@
       <c r="C90" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>216</v>
       </c>
@@ -3035,11 +3178,12 @@
       <c r="C91" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D91" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>219</v>
       </c>
@@ -3049,11 +3193,12 @@
       <c r="C92" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D92" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>222</v>
       </c>
@@ -3063,11 +3208,12 @@
       <c r="C93" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D93" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>224</v>
       </c>
@@ -3077,11 +3223,12 @@
       <c r="C94" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>226</v>
       </c>
@@ -3091,11 +3238,12 @@
       <c r="C95" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D95" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>229</v>
       </c>
@@ -3105,11 +3253,12 @@
       <c r="C96" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D96" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>232</v>
       </c>
@@ -3119,11 +3268,12 @@
       <c r="C97" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D97" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>234</v>
       </c>
@@ -3133,11 +3283,12 @@
       <c r="C98" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D98" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>237</v>
       </c>
@@ -3147,11 +3298,12 @@
       <c r="C99" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D99" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>239</v>
       </c>
@@ -3161,11 +3313,12 @@
       <c r="C100" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>241</v>
       </c>
@@ -3175,11 +3328,12 @@
       <c r="C101" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>243</v>
       </c>
@@ -3189,11 +3343,12 @@
       <c r="C102" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>245</v>
       </c>
@@ -3203,11 +3358,12 @@
       <c r="C103" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>247</v>
       </c>
@@ -3217,11 +3373,12 @@
       <c r="C104" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>407</v>
       </c>
@@ -3231,11 +3388,12 @@
       <c r="C105" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D105" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>409</v>
       </c>
@@ -3245,11 +3403,12 @@
       <c r="C106" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>412</v>
       </c>
@@ -3259,11 +3418,12 @@
       <c r="C107" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D107" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>250</v>
       </c>
@@ -3273,11 +3433,12 @@
       <c r="C108" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>253</v>
       </c>
@@ -3287,11 +3448,12 @@
       <c r="C109" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>256</v>
       </c>
@@ -3301,11 +3463,12 @@
       <c r="C110" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>258</v>
       </c>
@@ -3315,11 +3478,12 @@
       <c r="C111" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>260</v>
       </c>
@@ -3329,11 +3493,12 @@
       <c r="C112" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>262</v>
       </c>
@@ -3343,11 +3508,12 @@
       <c r="C113" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D113" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>413</v>
       </c>
@@ -3357,11 +3523,12 @@
       <c r="C114" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>265</v>
       </c>
@@ -3371,11 +3538,12 @@
       <c r="C115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D115" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>267</v>
       </c>
@@ -3385,11 +3553,12 @@
       <c r="C116" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>269</v>
       </c>
@@ -3399,11 +3568,12 @@
       <c r="C117" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D117" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>271</v>
       </c>
@@ -3413,11 +3583,12 @@
       <c r="C118" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>273</v>
       </c>
@@ -3427,11 +3598,12 @@
       <c r="C119" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D119" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>275</v>
       </c>
@@ -3441,11 +3613,12 @@
       <c r="C120" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>277</v>
       </c>
@@ -3455,11 +3628,12 @@
       <c r="C121" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D121" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>279</v>
       </c>
@@ -3469,11 +3643,12 @@
       <c r="C122" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>281</v>
       </c>
@@ -3483,11 +3658,12 @@
       <c r="C123" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D123" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>283</v>
       </c>
@@ -3497,11 +3673,12 @@
       <c r="C124" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>286</v>
       </c>
@@ -3511,11 +3688,12 @@
       <c r="C125" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D125" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>288</v>
       </c>
@@ -3525,11 +3703,12 @@
       <c r="C126" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>290</v>
       </c>
@@ -3539,11 +3718,12 @@
       <c r="C127" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D127" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>416</v>
       </c>
@@ -3553,11 +3733,12 @@
       <c r="C128" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>292</v>
       </c>
@@ -3567,11 +3748,12 @@
       <c r="C129" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D129" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>294</v>
       </c>
@@ -3581,11 +3763,12 @@
       <c r="C130" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D130" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>297</v>
       </c>
@@ -3595,11 +3778,12 @@
       <c r="C131" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D131" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>300</v>
       </c>
@@ -3609,11 +3793,12 @@
       <c r="C132" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>303</v>
       </c>
@@ -3623,11 +3808,12 @@
       <c r="C133" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D133" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>306</v>
       </c>
@@ -3637,11 +3823,12 @@
       <c r="C134" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D134" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>308</v>
       </c>
@@ -3651,11 +3838,12 @@
       <c r="C135" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D135" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>310</v>
       </c>
@@ -3665,11 +3853,12 @@
       <c r="C136" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>312</v>
       </c>
@@ -3679,11 +3868,12 @@
       <c r="C137" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D137" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>315</v>
       </c>
@@ -3693,11 +3883,12 @@
       <c r="C138" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D138" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>317</v>
       </c>
@@ -3707,11 +3898,12 @@
       <c r="C139" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D139" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>319</v>
       </c>
@@ -3721,11 +3913,12 @@
       <c r="C140" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D140" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>321</v>
       </c>
@@ -3735,11 +3928,12 @@
       <c r="C141" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D141" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>323</v>
       </c>
@@ -3749,11 +3943,12 @@
       <c r="C142" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>326</v>
       </c>
@@ -3763,11 +3958,12 @@
       <c r="C143" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D143" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>328</v>
       </c>
@@ -3777,11 +3973,12 @@
       <c r="C144" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D144" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>330</v>
       </c>
@@ -3791,11 +3988,12 @@
       <c r="C145" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D145" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>332</v>
       </c>
@@ -3805,11 +4003,12 @@
       <c r="C146" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D146" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>335</v>
       </c>
@@ -3819,11 +4018,12 @@
       <c r="C147" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D147" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>338</v>
       </c>
@@ -3833,11 +4033,12 @@
       <c r="C148" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D148" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>341</v>
       </c>
@@ -3847,11 +4048,12 @@
       <c r="C149" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D149" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="10"/>
+    </row>
+    <row r="150" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>344</v>
       </c>
@@ -3861,11 +4063,12 @@
       <c r="C150" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>346</v>
       </c>
@@ -3875,11 +4078,12 @@
       <c r="C151" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>348</v>
       </c>
@@ -3889,11 +4093,12 @@
       <c r="C152" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D152" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>350</v>
       </c>
@@ -3903,11 +4108,12 @@
       <c r="C153" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D153" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="10"/>
+    </row>
+    <row r="154" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>352</v>
       </c>
@@ -3917,11 +4123,12 @@
       <c r="C154" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D154" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>354</v>
       </c>
@@ -3931,11 +4138,12 @@
       <c r="C155" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D155" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>356</v>
       </c>
@@ -3945,11 +4153,12 @@
       <c r="C156" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>358</v>
       </c>
@@ -3959,11 +4168,12 @@
       <c r="C157" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>360</v>
       </c>
@@ -3973,11 +4183,12 @@
       <c r="C158" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E158" s="10"/>
+    </row>
+    <row r="159" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>363</v>
       </c>
@@ -3987,11 +4198,12 @@
       <c r="C159" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D159" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="10"/>
+    </row>
+    <row r="160" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>365</v>
       </c>
@@ -4001,11 +4213,12 @@
       <c r="C160" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D160" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="10"/>
+    </row>
+    <row r="161" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>418</v>
       </c>
@@ -4013,9 +4226,10 @@
         <v>419</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-    </row>
-    <row r="162" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D161" s="12"/>
+      <c r="E161" s="10"/>
+    </row>
+    <row r="162" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>367</v>
       </c>
@@ -4025,11 +4239,12 @@
       <c r="C162" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D162" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D162" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="10"/>
+    </row>
+    <row r="163" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>369</v>
       </c>
@@ -4039,11 +4254,12 @@
       <c r="C163" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E163" s="10"/>
+    </row>
+    <row r="164" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>372</v>
       </c>
@@ -4053,11 +4269,12 @@
       <c r="C164" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E164" s="10"/>
+    </row>
+    <row r="165" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>374</v>
       </c>
@@ -4067,11 +4284,12 @@
       <c r="C165" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E165" s="10"/>
+    </row>
+    <row r="166" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>420</v>
       </c>
@@ -4081,11 +4299,12 @@
       <c r="C166" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D166" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D166" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="10"/>
+    </row>
+    <row r="167" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>422</v>
       </c>
@@ -4095,11 +4314,12 @@
       <c r="C167" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D167" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="10"/>
+    </row>
+    <row r="168" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>376</v>
       </c>
@@ -4109,11 +4329,12 @@
       <c r="C168" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D168" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D168" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>425</v>
       </c>
@@ -4123,11 +4344,12 @@
       <c r="C169" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D169" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="10"/>
+    </row>
+    <row r="170" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>378</v>
       </c>
@@ -4137,11 +4359,12 @@
       <c r="C170" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D170" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D170" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="10"/>
+    </row>
+    <row r="171" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>380</v>
       </c>
@@ -4151,11 +4374,12 @@
       <c r="C171" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>382</v>
       </c>
@@ -4165,11 +4389,12 @@
       <c r="C172" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D172" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D172" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="10"/>
+    </row>
+    <row r="173" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
